--- a/doc/log/log_201608040118_pangdi.xlsx
+++ b/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>Order导入失败.并产生新的问题</t>
+  </si>
+  <si>
+    <t>2018.5.16</t>
+  </si>
+  <si>
+    <t>20:00---22:30</t>
+  </si>
+  <si>
+    <t>编写部分</t>
+  </si>
+  <si>
+    <t>继续编写</t>
   </si>
   <si>
     <t>周次</t>
@@ -97,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,14 +124,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +207,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,14 +238,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,76 +246,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,14 +266,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -264,85 +276,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,97 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +505,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -498,15 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,46 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
@@ -1127,6 +1139,23 @@
       </c>
       <c r="E5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1154,13 +1183,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201608040118_pangdi.xlsx
+++ b/doc/log/log_201608040118_pangdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>继续编写</t>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+  </si>
+  <si>
+    <t>18:00--20:00</t>
+  </si>
+  <si>
+    <t>解决order运行失败问题.观看视频spring</t>
+  </si>
+  <si>
+    <t>修改BUG,观看部分</t>
+  </si>
+  <si>
+    <t>bug修复完毕,视频观看部分</t>
   </si>
   <si>
     <t>周次</t>
@@ -109,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,35 +135,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +146,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -168,6 +162,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -175,16 +206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -192,7 +237,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,14 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,40 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +291,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,46 +485,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,31 +540,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
@@ -1107,7 +1122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="48" customHeight="1" spans="1:5">
+    <row r="4" ht="22" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1156,6 +1171,23 @@
       </c>
       <c r="E6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1183,13 +1215,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
